--- a/scalc/config/cfg_crlc/profile_df_2250.xlsx
+++ b/scalc/config/cfg_crlc/profile_df_2250.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\cfg_crlc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\scalc\config\cfg_crlc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16399" windowHeight="6749"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16404" windowHeight="6744"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>rprof</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,14 @@
   </si>
   <si>
     <t>cvc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MinRollCrn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxRollCrn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,23 +374,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -392,8 +406,14 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>-0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -403,8 +423,14 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>-0.9</v>
+      </c>
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -414,8 +440,14 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>-0.9</v>
+      </c>
+      <c r="E4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -425,8 +457,14 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>-0.9</v>
+      </c>
+      <c r="E5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -436,8 +474,14 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>-0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -447,8 +491,14 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>-0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -457,6 +507,12 @@
       </c>
       <c r="C8">
         <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
